--- a/Project Documents/Test Cases.xlsx
+++ b/Project Documents/Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\CS691 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E63F00-FABE-4333-9D32-4086D7B44C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EA0C2-3393-4F4F-83FF-D31BB8E16507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3E7B3C3-5FB4-4494-951B-F1767CF95724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Test Description</t>
   </si>
@@ -213,23 +213,107 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Enemies and allies respawn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemies and allies will respawn by getting hit from player's tank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control player's tank to hit an enemy or friendly tank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemies and allies respawned</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemies and allies did not respawned</t>
+    <t>Have different maps</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player can type in the map number to choose a map</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type in the map number</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different maps occurs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player can pause the game via press the "F" button on the keyboard at anytime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press the "F" button when game is running</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The game do not paused</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause the game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Up Tools</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player can pick up power-ups to level up, high speed, etc.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect power-ups when running the game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemies Respawn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemies will respawn by getting hit from player's tank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control player's tank to hit an enemy tank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemies did not respawned</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemies respawned</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The power-ups did not occurs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The power-ups occurs in the war so that the player cannot pick it up</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The power-ups successfully occurs in the map, also not occurs in the wall</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The game successfully paused</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are sound effects when tanks fire and when bullets hit enemies</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control player's tank to fire and hit an enemy tank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank successfully fire the cannon but there is no sound when firing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is sound effect when firing, but not hitting an enemy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sound effects successfully occured when tanks fire and when bullets hit enemies</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -756,10 +840,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,19 +1019,19 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>11</v>
@@ -956,22 +1040,22 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -989,28 +1073,28 @@
         <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
@@ -1018,20 +1102,20 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>29</v>
@@ -1039,25 +1123,247 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1065,6 +1371,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="21" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>